--- a/DS/Excel/aug17.xlsx
+++ b/DS/Excel/aug17.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21club5sep\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F30C2D-E5F2-47FB-9D8B-CF9F4487E785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF6808-AD92-49A2-8970-5C27A209CACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -62,15 +61,6 @@
   </si>
   <si>
     <t>Iferror</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>len</t>
   </si>
   <si>
     <t>Left</t>
@@ -500,16 +490,16 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -701,39 +691,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>